--- a/INPUT-FILES/OES-INPUT-TABLES/TOD-S/TODS descriptive ranges.xlsx
+++ b/INPUT-FILES/OES-INPUT-TABLES/TOD-S/TODS descriptive ranges.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpspublish1-my.sharepoint.com/personal/aklein_wpspublish_com/Documents/Desktop/TOD/OES/input files for TOD S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpspublish1-my.sharepoint.com/personal/dherzberg_wpspublish_com/Documents/Desktop/R/TOD-R/INPUT-FILES/OES-INPUT-TABLES/TOD-S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{493A6FE6-0956-4273-8126-AD9C1F34825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3365B7F8-A0BE-4151-A493-4F6F46D03A52}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{493A6FE6-0956-4273-8126-AD9C1F34825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E04923E-DF34-0843-998F-A2E7438331B9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="39345" yWindow="1185" windowWidth="14400" windowHeight="13800" xr2:uid="{59F30BFB-0060-4C30-BD40-0217378E45D2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{59F30BFB-0060-4C30-BD40-0217378E45D2}"/>
   </bookViews>
   <sheets>
     <sheet name="TODS" sheetId="1" r:id="rId1"/>
+    <sheet name="TODS (except DRI)" sheetId="2" r:id="rId2"/>
+    <sheet name="DRI desc_range" sheetId="3" r:id="rId3"/>
+    <sheet name="DRI risk" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -111,15 +114,64 @@
   </si>
   <si>
     <t>For TOD-S tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) ~ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>"Above Average",</t>
+  </si>
+  <si>
+    <t>"Average",</t>
+  </si>
+  <si>
+    <t>"Below Average",</t>
+  </si>
+  <si>
+    <t>"Well Below Average",</t>
+  </si>
+  <si>
+    <t>"Significantly Below Average",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!(test %in% c("DRIQ", "DRIW")) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; between(ss, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Well Above Average", </t>
+  </si>
+  <si>
+    <t>"Above average",</t>
+  </si>
+  <si>
+    <t>"Below average",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test %in% c("DRIQ", "DRIW") </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,6 +211,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,27 +238,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,25 +579,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE18E05-75A5-4B78-91D7-E1A40F57058A}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -549,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -557,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -565,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -573,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -581,7 +645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -589,12 +653,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -605,7 +672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -616,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -627,7 +694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -642,4 +709,414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5C3C1-5285-2041-A655-4FBF02EA29BB}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A5F3B-7A5F-BC4C-8F6A-E31DB60BA084}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" s="8"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G5" s="8"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G6" s="8"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F58DF9-79C8-2146-9783-7305F1526DA9}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" s="8"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G5" s="8"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G6" s="8"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="G7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>